--- a/ServisDB/PRIJEMNICA NA SERVIS.xlsx
+++ b/ServisDB/PRIJEMNICA NA SERVIS.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44379CAF-C77B-495F-8578-9A40495984E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1365" windowWidth="14715" windowHeight="10710"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 (6)" sheetId="7" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>78000 Banja Luka</t>
   </si>
@@ -107,9 +108,6 @@
   </si>
   <si>
     <t>Tablet Nexus 7</t>
-  </si>
-  <si>
-    <t>Neće da se puni</t>
   </si>
   <si>
     <t>xxx</t>
@@ -118,8 +116,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,7 +247,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -281,38 +279,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -349,7 +351,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="LOGO-VEKTOR.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="LOGO-VEKTOR.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -451,6 +459,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -486,6 +511,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -661,60 +703,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:D16"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G3" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="33.75">
-      <c r="B11" s="21" t="s">
+    <row r="11" spans="2:7" ht="39" x14ac:dyDescent="0.85">
+      <c r="B11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="2:7" ht="15" customHeight="1">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.85">
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -722,70 +764,70 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
-      <c r="A17" s="22" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="23" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="23" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="7">
         <v>42769</v>
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="25" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="25"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="23" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
@@ -794,11 +836,11 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75">
-      <c r="A25" s="23" t="s">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="23"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="11" t="s">
         <v>28</v>
       </c>
@@ -807,70 +849,68 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="25" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="25"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="23" t="s">
+      <c r="B27" s="20"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="23" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="B29" s="21"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="28" t="s">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="B32" s="31"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
@@ -880,76 +920,76 @@
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
     </row>
-    <row r="34" spans="1:8">
-      <c r="B34" s="23" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="C34" s="21"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="10"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="10"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" s="10"/>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="26" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="26" t="s">
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="26" t="s">
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>18</v>
       </c>
@@ -957,39 +997,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="8"/>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="25"/>
+      <c r="E48" s="20"/>
       <c r="G48" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
+  <mergeCells count="24">
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="A17:B17"/>
@@ -1003,6 +1031,17 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C15:D16"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
